--- a/Project_Grading_Rubric_Checklist.xlsx
+++ b/Project_Grading_Rubric_Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/tpk5401_psu_edu/Documents/Courses/AERSP_424/Fall 2023/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukefulton/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="8_{2E687571-912A-48DF-A2AF-07FCC8CEC5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4608E0D2-F2DC-490C-A322-C8FB7EEEEE06}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9BEA72-63A5-6E40-9A17-B26CF475E39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E08E36A2-DE9E-42A5-A6DD-8188537D7612}"/>
+    <workbookView xWindow="4900" yWindow="500" windowWidth="23260" windowHeight="20100" xr2:uid="{E08E36A2-DE9E-42A5-A6DD-8188537D7612}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -372,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,22 +746,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F30247-08F3-4D53-8CE2-96A4DCDF6914}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -773,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -781,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -789,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -797,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -805,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -813,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -826,12 +825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -845,106 +844,133 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
       <c r="D19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -955,51 +981,63 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="D22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="D24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="D25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1007,60 +1045,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
       <c r="B28">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
       <c r="B29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>45</v>
       </c>
       <c r="B30">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
       <c r="B31">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>47</v>
       </c>
       <c r="B32">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>48</v>
       </c>
       <c r="B33">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1068,7 +1124,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1076,39 +1132,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>51</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>54</v>
       </c>
       <c r="B39">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1116,7 +1184,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1124,7 +1192,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -1132,7 +1200,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1140,7 +1208,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -1148,7 +1216,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -1156,18 +1224,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>61</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -1175,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -1183,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -1191,29 +1262,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>66</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
       <c r="D50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
       <c r="D51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -1221,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -1229,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -1240,7 +1317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -1248,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -1259,7 +1336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -1267,7 +1344,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -1275,7 +1352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -1283,7 +1360,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -1291,7 +1368,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -1299,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -1307,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1315,16 +1392,20 @@
         <f>SUM(B12:B62)</f>
         <v>50</v>
       </c>
+      <c r="C63">
+        <f>SUM(C12:C62)</f>
+        <v>26.5</v>
+      </c>
       <c r="D63" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -1349,7 +1430,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -1360,7 +1441,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>89</v>
       </c>
@@ -1371,7 +1452,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -1382,7 +1463,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -1393,7 +1474,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1410,12 +1491,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -1429,7 +1510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -1440,7 +1521,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -1451,7 +1532,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -1462,7 +1543,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
@@ -1473,7 +1554,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -1484,7 +1565,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -1495,7 +1576,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -1506,7 +1587,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>9</v>
       </c>
